--- a/biology/Médecine/Pierre-Constant_Budin/Pierre-Constant_Budin.xlsx
+++ b/biology/Médecine/Pierre-Constant_Budin/Pierre-Constant_Budin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Constant Budin, né le 9 novembre 1846 à Énencourt-le-Sec (Oise) et mort le 22 janvier 1907 à Marseille, est un pédiatre obstétricien français. C'est un pionnier de la pédiatrie moderne, de l'allaitement et des soins aux nourrissons. 
 </t>
@@ -513,17 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Son père, Pierre Stanislas Budin, était propriétaire-cultivateur à Énencourt-le-Sec en Picardie. Sa mère s'appelait Agathe Constance Hérissant[1].
-Il fait ses études au collège des Capucins de Beauvais puis au lycée Napoléon à Paris[2]. Il commence des études de médecine en 1867, il est externe en 1869, interne de 1872 à 1875, il a comme professeurs, entre autres, Cornil et Tardieu[3].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, Pierre Stanislas Budin, était propriétaire-cultivateur à Énencourt-le-Sec en Picardie. Sa mère s'appelait Agathe Constance Hérissant.
+Il fait ses études au collège des Capucins de Beauvais puis au lycée Napoléon à Paris. Il commence des études de médecine en 1867, il est externe en 1869, interne de 1872 à 1875, il a comme professeurs, entre autres, Cornil et Tardieu.
 Pierre-Constant obtient son doctorat en médecine à Paris en 1876, prix de thèse et médaille d'argent.
-Carrière professionnelle
-De 1874 à 1883, il voyage souvent dans toute l'Europe pour visiter des maternités[3].
-En 1880, il est agrégé de chirurgie et d'accouchements, et en 1882 il devient chef du service d'obstétrique à l'hôpital de la Charité. 
-En 1892, sous sa responsabilité ont lieu les premières consultations pour nourrissons en France.
-En 1896, il fonde la revue L'Obstétrique. En 1898, il obtient la chaire d'obstétrique en succédant à Étienne Stéphane Tarnier (1828-1897). Il est aussi son successeur à la maternité de la rue d'Assas ou clinique Tarnier[3].
-En 1900, il fonde des dispensaires pour enfants. 
-En 1901, il est cofondateur, avec Théophile Roussel et Paul Strauss, de la « Ligue contre la mortalité infantile » qui se transformera en « Comité National de l'Enfance » devenu par ordonnance du 2 novembre 1945 la Protection maternelle et infantile[4]. Un autre élève de Tarnier, le Pr Paul Jean Bar, en sera Président[5].
 </t>
         </is>
       </c>
@@ -549,17 +559,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pierre Budin a été l'un des fondateurs de la médecine périnatale moderne, et a réalisé de nombreux travaux visant à réduire la mortalité infantile. Il a mis en évidence l'importance d'une bonne alimentation et de la prévention des maladies infectieuses chez les nouveau-nés. Il a développé l'éducation des jeunes mamans dans ces domaines.  
-Dans sa « Consultation de nourrissons » (hôpital de la Charité à Paris), les accouchées sortantes recevaient des conseils sur l'allaitement et les soins aux nourrissons. Ceux-ci étaient examinés chaque semaine jusqu'au sevrage, avec attention particulière sur l'évolution du poids et de la taille. 
-Il a montré qu'une des principales causes de gastro-entérite chez les nourrissons, facteur important de mortalité, est le lait de vache contaminé. Ceci l'a amené à devenir l'un des principaux promoteurs de l'allaitement au sein. 
-ll y eut une période de friction entre Budin et les promoteurs du lait de vache stérilisé comme Léon Dufour, médecin normand, qui fonde à Fécamp en 1894, le mouvement « La Goutte de Lait » qui s'étend rapidement en France. Ce mouvement organisait aussi des consultations de nourrissons, et distribuait gratuitement ou à prix réduits du lait stérilisé lorsque l'allaitement au sein n'était pas possible. Budin craignait de voir l'allaitement artificiel encouragé[6],[7].
-Budin et Dufour trouvèrent un compromis en organisant ensemble, à Paris, la première conférence internationale sur l'aide aux nourrissons (Congrès International des Gouttes de Lait, 1905)[6]. 
-Il a également popularisé une technique dite de « gavage » pour l'alimentation des bébés prématurés trop faibles pour recevoir la nourriture par des méthodes conventionnelles.
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1874 à 1883, il voyage souvent dans toute l'Europe pour visiter des maternités.
+En 1880, il est agrégé de chirurgie et d'accouchements, et en 1882 il devient chef du service d'obstétrique à l'hôpital de la Charité. 
+En 1892, sous sa responsabilité ont lieu les premières consultations pour nourrissons en France.
+En 1896, il fonde la revue L'Obstétrique. En 1898, il obtient la chaire d'obstétrique en succédant à Étienne Stéphane Tarnier (1828-1897). Il est aussi son successeur à la maternité de la rue d'Assas ou clinique Tarnier.
+En 1900, il fonde des dispensaires pour enfants. 
+En 1901, il est cofondateur, avec Théophile Roussel et Paul Strauss, de la « Ligue contre la mortalité infantile » qui se transformera en « Comité National de l'Enfance » devenu par ordonnance du 2 novembre 1945 la Protection maternelle et infantile. Un autre élève de Tarnier, le Pr Paul Jean Bar, en sera Président.
 </t>
         </is>
       </c>
@@ -585,10 +601,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Budin a été l'un des fondateurs de la médecine périnatale moderne, et a réalisé de nombreux travaux visant à réduire la mortalité infantile. Il a mis en évidence l'importance d'une bonne alimentation et de la prévention des maladies infectieuses chez les nouveau-nés. Il a développé l'éducation des jeunes mamans dans ces domaines.  
+Dans sa « Consultation de nourrissons » (hôpital de la Charité à Paris), les accouchées sortantes recevaient des conseils sur l'allaitement et les soins aux nourrissons. Ceux-ci étaient examinés chaque semaine jusqu'au sevrage, avec attention particulière sur l'évolution du poids et de la taille. 
+Il a montré qu'une des principales causes de gastro-entérite chez les nourrissons, facteur important de mortalité, est le lait de vache contaminé. Ceci l'a amené à devenir l'un des principaux promoteurs de l'allaitement au sein. 
+ll y eut une période de friction entre Budin et les promoteurs du lait de vache stérilisé comme Léon Dufour, médecin normand, qui fonde à Fécamp en 1894, le mouvement « La Goutte de Lait » qui s'étend rapidement en France. Ce mouvement organisait aussi des consultations de nourrissons, et distribuait gratuitement ou à prix réduits du lait stérilisé lorsque l'allaitement au sein n'était pas possible. Budin craignait de voir l'allaitement artificiel encouragé,.
+Budin et Dufour trouvèrent un compromis en organisant ensemble, à Paris, la première conférence internationale sur l'aide aux nourrissons (Congrès International des Gouttes de Lait, 1905). 
+Il a également popularisé une technique dite de « gavage » pour l'alimentation des bébés prématurés trop faibles pour recevoir la nourriture par des méthodes conventionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre-Constant_Budin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre-Constant_Budin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De la tête du fœtus au point de vue de l'obstétrique. Thèse de doctorat, Paris, 1876.
 Des lésions traumatiques chez la femme dans les accouchements artificiels. Thèse d'agrégation, Paris, 1878.
@@ -603,34 +659,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pierre-Constant_Budin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre-Constant_Budin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions et honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Montyon de l'Académie des sciences (1876).
-Chevalier de la Légion d'honneur (1886), puis officier (1901)[8].
+Chevalier de la Légion d'honneur (1886), puis officier (1901).
 Membre de l'Académie de médecine (1889).
 Officier d'académie (1889).
 Son nom est donné en 1912 à une rue du quartier de la Goutte-d'Or à Paris et en 1923 à une rue de Cannes.</t>
